--- a/biology/Zoologie/Conus_marmoreus/Conus_marmoreus.xlsx
+++ b/biology/Zoologie/Conus_marmoreus/Conus_marmoreus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cône marbré
 Conus marmoreus, le Cône marbré, est une espèce de mollusque gastéropode marin de la famille des Conidae. Il fait partie des cônes venimeux et peut être dangereux pour l'homme.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Comme tous les conidae, cette espèce présente de nombreuses variations. Extérieurement, sa coquille est noire avec de multiples triangles blancs bien limités, rarement congruents. Cette répartition et la couleur peuvent varier en fonction des hybridations. Les triangles peuvent s'étendre, déborder les uns sur les autres et, à la limite, la couleur noire en venir à disparaître tout à fait, la coquille est alors d'un rose plus ou moins clair, avec parfois des nuances orangées (Conus marmoreus suffusus - Sowerby III, 1870), forme endémique de la région de Bourail en Nouvelle-Calédonie.
 Taille maximale : 15 cm.</t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Océan Pacifique.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Animal nocturne qui le jour se cache sous les pierres ou dans le sable. Se trouve entre 10 cm et 20 m de profondeur.
 </t>
@@ -605,13 +623,15 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rhombus cylindro-pyramidalis (Lister)
-Cylindrus  indicus (Bonnani)[1]
+Cylindrus  indicus (Bonnani)
 Il existe des synonymes pour le nom vernaculaire :
 – cône marbré ;
-– cône damier[2].</t>
+– cône damier.</t>
         </is>
       </c>
     </row>
